--- a/Assets/Notes and Utilities/GAG-checklist.xlsx
+++ b/Assets/Notes and Utilities/GAG-checklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA1572-7BDC-4AEB-AB51-B24E0E02E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Guideline</t>
   </si>
@@ -408,13 +409,96 @@
     <t>© gameaccessibilityguidelines.com
 Last updated Sept 20th 2017
 Provided freely and in good spirit with no restriction on use, adaptation or sharing, but please do not republish under a different name without obtaining permission from the copyright holder.</t>
+  </si>
+  <si>
+    <t>Non necessario</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Non abbiamo colori di testo, solo formattazioni</t>
+  </si>
+  <si>
+    <t>Non abbiamo elementi 3d</t>
+  </si>
+  <si>
+    <t>Non abbiamo il VR</t>
+  </si>
+  <si>
+    <t>Obiettivi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dimensione font regolabile (28 px come media per schermo grande e lontano </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steam Deck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>sans serif, font dislessia (ci sta con l'estetica). Aggiungere opzione line spacing.</t>
+  </si>
+  <si>
+    <t>Sfondo bianco, testo nero, eventualmente bordini su box testo per l'estetica o piccole decorazioni.</t>
+  </si>
+  <si>
+    <t>Check spazi tra interagibili del gioco (in particolare oggetti per cambio scena e confini con personagge)</t>
+  </si>
+  <si>
+    <t>Abilitare/disabilitare animazioni del background per leggibilità schermo</t>
+  </si>
+  <si>
+    <t>Text to voice option (evitando le AI se riusciamo)?</t>
+  </si>
+  <si>
+    <t>Filtro bianco o nero regolabile sul background https://gameaccessibilityguidelines.com/epic-eric-contrast-settings/</t>
+  </si>
+  <si>
+    <t>Ragionare su fattibilità</t>
+  </si>
+  <si>
+    <t>Scelta del cursore</t>
+  </si>
+  <si>
+    <t>Capire come rendere chiara parte di interattività</t>
+  </si>
+  <si>
+    <t>No manuali</t>
+  </si>
+  <si>
+    <t>Due controlli diversi tra effetti audio e musica</t>
+  </si>
+  <si>
+    <t>No problema</t>
+  </si>
+  <si>
+    <t>Valutare inserimento opzione?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +555,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -535,100 +627,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -648,9 +650,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -688,7 +690,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -794,7 +796,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,264 +938,285 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75">
+    <row r="3" spans="1:6" ht="38.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:4" ht="21.75">
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" ht="21.75">
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="27">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="60">
+    <row r="17" spans="1:2" ht="60">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30">
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" ht="21.75">
+    <row r="27" spans="1:2" ht="27">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="45">
+    <row r="29" spans="1:2" ht="45">
       <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
+    <row r="30" spans="1:2" ht="30">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="30">
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="30.75">
+    <row r="33" spans="1:3" ht="38.25">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="8" customFormat="1">
+    <row r="35" spans="1:3" s="8" customFormat="1">
       <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1" ht="21.75">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="27">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="8" customFormat="1">
+    <row r="42" spans="1:3" s="8" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" s="8" customFormat="1">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" s="8" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" s="8" customFormat="1" ht="21.75">
+    <row r="45" spans="1:3" s="8" customFormat="1" ht="27">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -1266,7 +1289,7 @@
     <row r="62" spans="1:1">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" ht="21.75">
+    <row r="63" spans="1:1" ht="27">
       <c r="A63" s="4" t="s">
         <v>15</v>
       </c>
@@ -1276,308 +1299,377 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="30">
+    <row r="65" spans="1:3" ht="30">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="30.75">
+    <row r="71" spans="1:3" ht="38.25">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:3">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" ht="21.75">
+    <row r="73" spans="1:3" ht="27">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" s="8" customFormat="1" ht="30">
+      <c r="B74" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="8" customFormat="1" ht="30">
       <c r="A75" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30">
       <c r="A77" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="C77" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30">
       <c r="A78" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="C78" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30">
       <c r="A79" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" s="8" customFormat="1" ht="30">
+      <c r="C79" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="8" customFormat="1" ht="30">
       <c r="A80" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" ht="21.75">
+    <row r="82" spans="1:3" ht="27">
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="30">
+    <row r="83" spans="1:3" ht="30">
       <c r="A83" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" s="8" customFormat="1" ht="45">
+      <c r="B83" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="8" customFormat="1" ht="45">
       <c r="A84" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30">
       <c r="A86" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="C86" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="C87" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30">
       <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="30">
+      <c r="C88" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30">
       <c r="A89" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="C89" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="C90" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="30">
+      <c r="C91" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30">
       <c r="A92" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="30">
+      <c r="B92" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="30">
+      <c r="C93" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
       <c r="A94" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="C95" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="21.75">
+    <row r="97" spans="1:3" ht="27">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="8" customFormat="1" ht="30">
+    <row r="100" spans="1:3" s="8" customFormat="1" ht="30">
       <c r="A100" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="60">
+    <row r="103" spans="1:3" ht="60">
       <c r="A103" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="8" customFormat="1">
+    <row r="105" spans="1:3" s="8" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:3">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" ht="30.75">
+    <row r="109" spans="1:3" ht="38.25">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:3">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" ht="21.75">
+    <row r="111" spans="1:3" ht="27">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="30">
+    <row r="113" spans="1:3" ht="30">
       <c r="A113" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="30">
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:3">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" ht="21.75">
+    <row r="117" spans="1:3" ht="27">
       <c r="A117" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="8" customFormat="1">
+    <row r="118" spans="1:3" s="8" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="30">
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="45">
+    <row r="126" spans="1:3" ht="45">
       <c r="A126" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="45">
+    <row r="127" spans="1:3" ht="45">
       <c r="A127" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -1585,7 +1677,7 @@
     <row r="129" spans="1:1">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" ht="21.75">
+    <row r="130" spans="1:1" ht="27">
       <c r="A130" s="4" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1700,7 @@
     <row r="134" spans="1:1">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" ht="30.75">
+    <row r="135" spans="1:1" ht="38.25">
       <c r="A135" s="3" t="s">
         <v>101</v>
       </c>
@@ -1616,7 +1708,7 @@
     <row r="136" spans="1:1">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" ht="21.75">
+    <row r="137" spans="1:1" ht="27">
       <c r="A137" s="4" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1721,7 @@
     <row r="139" spans="1:1">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" ht="21.75">
+    <row r="140" spans="1:1" ht="27">
       <c r="A140" s="4" t="s">
         <v>8</v>
       </c>
@@ -1654,74 +1746,82 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:3">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" ht="21.75">
+    <row r="146" spans="1:3" ht="27">
       <c r="A146" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="30">
+    <row r="147" spans="1:3" ht="30">
       <c r="A147" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:1" s="8" customFormat="1">
+    <row r="148" spans="1:3" s="8" customFormat="1">
       <c r="A148" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" s="8" customFormat="1">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" s="8" customFormat="1">
       <c r="A149" s="6"/>
-    </row>
-    <row r="150" spans="1:1" ht="30.75">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" ht="38.25">
       <c r="A150" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:3">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" ht="21.75">
+    <row r="152" spans="1:3" ht="27">
       <c r="A152" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:1" s="8" customFormat="1">
+    <row r="155" spans="1:3" s="8" customFormat="1">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:1" s="8" customFormat="1">
+    <row r="157" spans="1:3" s="8" customFormat="1">
       <c r="A157" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" ht="21.75">
+    <row r="159" spans="1:3" ht="27">
       <c r="A159" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="30">
+    <row r="160" spans="1:3" ht="30">
       <c r="A160" s="6" t="s">
         <v>122</v>
       </c>
@@ -1764,7 +1864,7 @@
     <row r="168" spans="1:1">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" ht="21.75">
+    <row r="169" spans="1:1" ht="27">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -1790,212 +1890,132 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Z11 A73:Z80 A111:Z115 A117:Z128 A130:Z135 A137:Z138 A140:Z144 A146:Z150 A152:Z157 A159:Z167 A169:Z1514 A13:Z25 A27:Z43 A45:Z61 A63:Z71 A82:Z95 A97:Z109">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Z72">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Z110">
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116:Z116">
-    <cfRule type="expression" dxfId="15" priority="14">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Z129">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Z136">
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139:Z139">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145:Z145">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:Z151">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:Z158">
-    <cfRule type="expression" dxfId="9" priority="8">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:Z168">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:Z12">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:Z26">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Z62">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:Z81">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>INDIRECT("b"&amp;ROW())="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Z96">
+  <conditionalFormatting sqref="A78:B78 D78:AB78 A1:AB77 A79:AB1514">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("b"&amp;ROW())="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="http://gameaccessibilityguidelines.com/allow-controls-to-be-remapped-reconfigured"/>
-    <hyperlink ref="A8" r:id="rId2" display="http://gameaccessibilityguidelines.com/ensure-controls-are-as-simple-as-possible-or-provide-a-simpler-alternative"/>
-    <hyperlink ref="A9" r:id="rId3" display="http://gameaccessibilityguidelines.com/ensure-that-all-areas-of-the-user-interface-can-be-accessed-using-the-same-input-method-as-the-gameplay"/>
-    <hyperlink ref="A10" r:id="rId4" display="http://gameaccessibilityguidelines.com/include-an-option-to-adjust-the-sensitivity-of-controls"/>
-    <hyperlink ref="A11" r:id="rId5" display="http://gameaccessibilityguidelines.com/ensure-interactive-elements-virtual-controls-are-large-and-well-spaced-particularly-on-small-or-touch-screens"/>
-    <hyperlink ref="A14" r:id="rId6" display="http://gameaccessibilityguidelines.com/support-more-than-one-input-device"/>
-    <hyperlink ref="A15" r:id="rId7" display="http://gameaccessibilityguidelines.com/make-interactive-elements-that-require-accuracy-eg-cursortouch-controlled-menu-options-stationary"/>
-    <hyperlink ref="A16" r:id="rId8" display="http://gameaccessibilityguidelines.com/ensure-that-multiple-simultaneous-actions-eg-clickdrag-or-swipe-are-not-required-and-included-only-as-a-supplementary-alternative-input-method"/>
-    <hyperlink ref="A17" r:id="rId9" display="http://gameaccessibilityguidelines.com/ensure-that-all-key-actions-can-be-carried-out-by-digital-controls-pad-keys-presses-with-more-complex-input-eg-analogue-speech-gesture-not-required-and-included-only-as-supplementary-al"/>
-    <hyperlink ref="A18" r:id="rId10" display="http://gameaccessibilityguidelines.com/include-an-option-to-adjust-the-game-speed"/>
-    <hyperlink ref="A19" r:id="rId11" display="http://gameaccessibilityguidelines.com/avoid-repeated-inputs-button-mashingquick-time-events"/>
-    <hyperlink ref="A20" r:id="rId12" display="http://gameaccessibilityguidelines.com/if-producing-a-pc-game-support-windowed-mode-for-compatibility-with-overlaid-virtual-keyboards"/>
-    <hyperlink ref="A21" r:id="rId13" display="http://gameaccessibilityguidelines.com/avoid-provide-alternatives-to-requiring-buttons-to-be-held-down"/>
-    <hyperlink ref="A22" r:id="rId14" display="http://gameaccessibilityguidelines.com/allow-interfaces-to-be-rearranged"/>
-    <hyperlink ref="A23" r:id="rId15" display="http://gameaccessibilityguidelines.com/allow-interfaces-to-be-resized"/>
-    <hyperlink ref="A24" r:id="rId16" display="http://gameaccessibilityguidelines.com/provide-a-macro-system/"/>
-    <hyperlink ref="A25" r:id="rId17" display="http://gameaccessibilityguidelines.com/allow-for-varied-body-types-in-vr/"/>
-    <hyperlink ref="A28" r:id="rId18" display="http://gameaccessibilityguidelines.com/allow-play-in-both-landscape-and-portrait"/>
-    <hyperlink ref="A29" r:id="rId19" tooltip="Do not make precise timing essential to gameplay – offer alternatives, actions that can be carried out while paused, or a skip mechanism" display="http://gameaccessibilityguidelines.com/do-not-make-precise-timing-essential-to-gameplay-offer-alternatives-actions-that-can-be-carried-out-while-paused-or-a-skip-mechanism"/>
-    <hyperlink ref="A30" r:id="rId20" tooltip="Include a cool-down period (post acceptance delay) of 0.5 seconds between inputs" display="http://gameaccessibilityguidelines.com/include-a-cool-down-period-post-acceptance-delay-of-0-5-seconds-between-inputs"/>
-    <hyperlink ref="A31" r:id="rId21" display="http://gameaccessibilityguidelines.com/provide-very-simple-control-schemes-that-are-compatible-with-assistive-technology-devices-such-as-switch-or-eye-tracking"/>
-    <hyperlink ref="A37" r:id="rId22" display="http://gameaccessibilityguidelines.com/allow-the-game-to-be-started-without-the-need-to-navigate-through-multiple-levels-of-menus"/>
-    <hyperlink ref="A38" r:id="rId23" display="http://gameaccessibilityguidelines.com/use-an-easily-readable-default-font-size"/>
-    <hyperlink ref="A39" r:id="rId24" display="http://gameaccessibilityguidelines.com/use-simple-clear-language"/>
-    <hyperlink ref="A40" r:id="rId25" display="http://gameaccessibilityguidelines.com/use-simple-clear-text-formatting"/>
-    <hyperlink ref="A41" r:id="rId26" display="http://gameaccessibilityguidelines.com/include-tutorials"/>
-    <hyperlink ref="A42" r:id="rId27" display="http://gameaccessibilityguidelines.com/allow-players-to-progress-through-text-prompts-at-their-own-pace"/>
-    <hyperlink ref="A43" r:id="rId28" display="http://gameaccessibilityguidelines.com/avoid-flickering-images-and-repetitive-patterns"/>
-    <hyperlink ref="A46" r:id="rId29" display="http://gameaccessibilityguidelines.com/include-contextual-in-game-helpguidancetips"/>
-    <hyperlink ref="A47" r:id="rId30" display="http://gameaccessibilityguidelines.com/indicate-allow-reminder-of-current-objectives-during-gameplay"/>
-    <hyperlink ref="A48" r:id="rId31" display="http://gameaccessibilityguidelines.com/indicate-allow-reminder-of-controls-during-gameplay"/>
-    <hyperlink ref="A49" r:id="rId32" display="http://gameaccessibilityguidelines.com/include-a-means-of-practicing-without-failure-such-as-a-practice-level-or-sandbox-mode"/>
-    <hyperlink ref="A50" r:id="rId33" display="http://gameaccessibilityguidelines.com/employ-a-simple-clear-narrative-structure"/>
-    <hyperlink ref="A51" r:id="rId34" display="http://gameaccessibilityguidelines.com/if-using-a-long-overarching-narrative-provide-summaries-of-progress"/>
-    <hyperlink ref="A52" r:id="rId35" display="http://gameaccessibilityguidelines.com/ensure-no-essential-information-especially-instructions-is-conveyed-by-text-alone-reinforce-with-visuals-andor-speech"/>
-    <hyperlink ref="A53" r:id="rId36" tooltip="Give a clear indication that interactive elements are interactive" display="http://gameaccessibilityguidelines.com/give-a-clear-indication-that-interactive-elements-are-interactive"/>
-    <hyperlink ref="A54" r:id="rId37" tooltip="Provide an option to turn off / hide background movement" display="http://gameaccessibilityguidelines.com/provide-an-option-to-turn-off-hide-background-movement"/>
-    <hyperlink ref="A55" r:id="rId38" tooltip="Support voice chat as well as text for multiplayer games" display="http://gameaccessibilityguidelines.com/support-voice-chat-as-well-as-text-for-multiplayer-games"/>
-    <hyperlink ref="A56" r:id="rId39" tooltip="Provide gameplay thumbnails with game saves" display="http://gameaccessibilityguidelines.com/provide-gameplay-thumbnails-with-game-saves"/>
-    <hyperlink ref="A57" r:id="rId40" tooltip="Provide separate volume controls or mutes for effects, speech and background / music" display="http://gameaccessibilityguidelines.com/provide-separate-volume-controls-or-mutes-for-effects-speech-and-background-music"/>
-    <hyperlink ref="A58" r:id="rId41" tooltip="Ensure sound / music choices for each key objects / events are distinct from each other" display="http://gameaccessibilityguidelines.com/ensure-sound-music-choices-for-each-key-objects-events-are-distinct-from-each-other"/>
-    <hyperlink ref="A59" r:id="rId42" tooltip="Include an option to adjust the game speed" display="http://gameaccessibilityguidelines.com/include-an-option-to-adjust-the-game-speed"/>
-    <hyperlink ref="A60" r:id="rId43" tooltip="Provide a choice of text colour, low/high contrast choice as a minimum" display="http://gameaccessibilityguidelines.com/provide-a-choice-of-text-colour-lowhigh-contrast-choice-as-a-minimum"/>
-    <hyperlink ref="A61" r:id="rId44" display="http://gameaccessibilityguidelines.com/highlight-important-words/"/>
-    <hyperlink ref="A64" r:id="rId45" display="http://gameaccessibilityguidelines.com/provide-an-option-to-disable-blood-and-gore/"/>
-    <hyperlink ref="A65" r:id="rId46" display="http://gameaccessibilityguidelines.com/provide-full-internal-self-voicing-for-all-text-including-menus-and-installers"/>
-    <hyperlink ref="A66" r:id="rId47" display="http://gameaccessibilityguidelines.com/avoid-any-sudden-unexpected-movement-or-events"/>
-    <hyperlink ref="A67" r:id="rId48" display="http://gameaccessibilityguidelines.com/allow-all-narrative-and-instructions-to-be-replayed"/>
-    <hyperlink ref="A68" r:id="rId49" display="http://gameaccessibilityguidelines.com/use-symbol-based-chat-smileys-etc"/>
-    <hyperlink ref="A69" r:id="rId50" display="http://gameaccessibilityguidelines.com/provide-an-option-to-turn-off-hide-all-non-interactive-elements"/>
-    <hyperlink ref="A74" r:id="rId51" display="http://gameaccessibilityguidelines.com/ensure-no-essential-information-is-conveyed-by-a-colour-alone"/>
-    <hyperlink ref="A75" r:id="rId52" display="http://gameaccessibilityguidelines.com/if-the-game-uses-field-of-view-3d-engine-only-set-an-appropriate-default-for-the-expected-viewing-environment"/>
-    <hyperlink ref="A76" r:id="rId53" display="http://gameaccessibilityguidelines.com/avoid-vr-simulation-sickness-triggers/"/>
-    <hyperlink ref="A77" r:id="rId54" display="http://gameaccessibilityguidelines.com/use-an-easily-readable-default-font-size"/>
-    <hyperlink ref="A78" r:id="rId55" display="http://gameaccessibilityguidelines.com/use-simple-clear-text-formatting"/>
-    <hyperlink ref="A79" r:id="rId56" display="http://gameaccessibilityguidelines.com/provide-high-contrast-between-text-and-background"/>
-    <hyperlink ref="A80" r:id="rId57" display="http://gameaccessibilityguidelines.com/ensure-interactive-elements-virtual-controls-are-large-and-well-spaced-particularly-on-small-or-touch-screens"/>
-    <hyperlink ref="A83" r:id="rId58" tooltip="If the game uses field of view (3D engine only), set an appropriate default for the expected viewing environment" display="http://gameaccessibilityguidelines.com/if-the-game-uses-field-of-view-3d-engine-only-set-an-appropriate-default-for-the-expected-viewing-environment"/>
-    <hyperlink ref="A84" r:id="rId59" tooltip="Avoid (or provide option to disable) any difference between controller movement and camera movement, such as weapon/walk bobbing or mouse smoothing" display="http://gameaccessibilityguidelines.com/avoid-or-provide-option-to-disable-any-difference-between-controller-movement-and-camera-movement-such-as-weaponwalk-bobbing-or-mouse-smoothing"/>
-    <hyperlink ref="A85" r:id="rId60" tooltip="Use surround sound" display="http://gameaccessibilityguidelines.com/use-surround-sound"/>
-    <hyperlink ref="A86" r:id="rId61" tooltip="Provide an option to turn off / hide background movement" display="http://gameaccessibilityguidelines.com/provide-an-option-to-turn-off-hide-background-movement"/>
-    <hyperlink ref="A87" r:id="rId62" display="http://gameaccessibilityguidelines.com/ensure-screenreader-support-for-mobile-devices"/>
-    <hyperlink ref="A88" r:id="rId63" tooltip="Provide an option to adjust contrast" display="http://gameaccessibilityguidelines.com/provide-an-option-to-adjust-contrast"/>
-    <hyperlink ref="A89" r:id="rId64" tooltip="Ensure sound / music choices for each key objects / events are distinct from each other" display="http://gameaccessibilityguidelines.com/ensure-sound-music-choices-for-each-key-objects-events-are-distinct-from-each-other"/>
-    <hyperlink ref="A90" r:id="rId65" tooltip="Provide a choice of cursor / crosshair colours / designs" display="http://gameaccessibilityguidelines.com/provide-a-choice-of-cursor-crosshair-colours-designs"/>
-    <hyperlink ref="A91" r:id="rId66" tooltip="Give a clear indication that interactive elements are interactive" display="http://gameaccessibilityguidelines.com/give-a-clear-indication-that-interactive-elements-are-interactive"/>
-    <hyperlink ref="A92" r:id="rId67" tooltip="Ensure manual / website are provided in a screenreader friendly format" display="http://gameaccessibilityguidelines.com/ensure-manual-website-are-provided-in-a-screenreader-friendly-format"/>
-    <hyperlink ref="A93" r:id="rId68" tooltip="Provide separate volume controls or mutes for effects, speech and background / music" display="http://gameaccessibilityguidelines.com/provide-separate-volume-controls-or-mutes-for-effects-speech-and-background-music"/>
-    <hyperlink ref="A94" r:id="rId69" tooltip="Avoid placing essential temporary information outside the player’s eye-line" display="http://gameaccessibilityguidelines.com/avoid-placing-essential-temporary-information-outside-the-players-eye-line"/>
-    <hyperlink ref="A95" r:id="rId70" display="http://gameaccessibilityguidelines.com/allow-interfaces-to-be-resized"/>
-    <hyperlink ref="A98" r:id="rId71" display="http://gameaccessibilityguidelines.com/allow-the-font-size-to-be-adjusted"/>
-    <hyperlink ref="A99" r:id="rId72" display="http://gameaccessibilityguidelines.com/provide-a-pingable-sonar-style-audio-map"/>
-    <hyperlink ref="A100" r:id="rId73" display="http://gameaccessibilityguidelines.com/provide-full-internal-self-voicing-for-all-text-including-menus-and-installers"/>
-    <hyperlink ref="A101" r:id="rId74" tooltip="Provide a voiced GPS" display="http://gameaccessibilityguidelines.com/provide-a-voiced-gps"/>
-    <hyperlink ref="A102" r:id="rId75" tooltip="Allow easy orientation to / movement along compass points" display="http://gameaccessibilityguidelines.com/allow-easy-orientation-to-movement-along-compass-points"/>
-    <hyperlink ref="A103" r:id="rId76" tooltip="Ensure that all key actions can be carried out by digital controls (pads / keys / presses), with more complex input (eg. analogue, gesture) not required, and included only as supplementary / alternative input methods" display="http://gameaccessibilityguidelines.com/ensure-that-all-key-actions-can-be-carried-out-by-digital-controls-pads-keys-presses-with-more-complex-input-eg-analogue-gesture-not-required-and-included-only-as-supplementary-alternati"/>
-    <hyperlink ref="A104" r:id="rId77" tooltip="Ensure screenreader support, including menus &amp; installers" display="http://gameaccessibilityguidelines.com/ensure-screenreader-support-including-menus-installers"/>
-    <hyperlink ref="A105" r:id="rId78" tooltip="Use distinct sound / music design for all objects and events" display="http://gameaccessibilityguidelines.com/use-distinct-sound-music-design-for-all-objects-and-events"/>
-    <hyperlink ref="A106" r:id="rId79" tooltip="Simulate binaural recording" display="http://gameaccessibilityguidelines.com/simulate-binaural-recording"/>
-    <hyperlink ref="A107" r:id="rId80" display="http://gameaccessibilityguidelines.com/provide-an-audio-description-track/"/>
-    <hyperlink ref="A112" r:id="rId81" display="http://gameaccessibilityguidelines.com/provide-subtitles-for-all-important-speech/"/>
-    <hyperlink ref="A113" r:id="rId82" display="http://gameaccessibilityguidelines.com/provide-separate-volume-controls-or-mutes-for-effects-speech-and-background-music"/>
-    <hyperlink ref="A114" r:id="rId83" display="http://gameaccessibilityguidelines.com/ensure-no-essential-information-is-conveyed-by-sounds-alone"/>
-    <hyperlink ref="A115" r:id="rId84" display="http://gameaccessibilityguidelines.com/if-any-subtitles-captions-are-used-present-them-in-a-clear-easy-to-read-way/"/>
-    <hyperlink ref="A118" r:id="rId85" display="http://gameaccessibilityguidelines.com/keep-background-noise-to-minimum-during-speech"/>
-    <hyperlink ref="A119" r:id="rId86" display="http://gameaccessibilityguidelines.com/provide-subtitles-for-supplementary-speech/"/>
-    <hyperlink ref="A120" r:id="rId87" display="http://gameaccessibilityguidelines.com/ensure-subtitles-captions-are-or-can-be-enabled-before-any-sound-is-played"/>
-    <hyperlink ref="A121" r:id="rId88" display="http://gameaccessibilityguidelines.com/provide-captions-or-visuals-for-significant-background-sounds/"/>
-    <hyperlink ref="A122" r:id="rId89" display="http://gameaccessibilityguidelines.com/provide-a-visual-indication-of-who-is-currently-speaking"/>
-    <hyperlink ref="A123" r:id="rId90" display="http://gameaccessibilityguidelines.com/allow-subtitlecaption-presentation-to-be-customised/"/>
-    <hyperlink ref="A125" r:id="rId91" display="http://gameaccessibilityguidelines.com/support-visual-means-of-communicating-in-multiplayer"/>
-    <hyperlink ref="A126" r:id="rId92" display="http://gameaccessibilityguidelines.com/allow-a-preference-to-be-set-for-playing-online-multiplayer-with-players-who-will-only-play-with-are-willing-to-play-without-voice-chat"/>
-    <hyperlink ref="A127" r:id="rId93" display="http://gameaccessibilityguidelines.com/ensure-that-all-important-supplementary-information-eg-the-direction-you-are-being-shot-from-conveyed-by-audio-is-replicated-in-text-visuals"/>
-    <hyperlink ref="A128" r:id="rId94" display="http://gameaccessibilityguidelines.com/provide-a-stereomono-toggle"/>
-    <hyperlink ref="A131" r:id="rId95" display="http://gameaccessibilityguidelines.com/ensure-that-subtitlescaptions-are-cut-down-to-and-presented-at-an-appropriate-words-per-minute-for-the-target-age-group"/>
-    <hyperlink ref="A132" r:id="rId96" display="http://gameaccessibilityguidelines.com/provide-signing"/>
-    <hyperlink ref="A133" r:id="rId97" display="http://gameaccessibilityguidelines.com/use-symbol-based-chat-smileys-etc"/>
-    <hyperlink ref="A138" r:id="rId98" display="http://gameaccessibilityguidelines.com/ensure-that-speech-input-is-not-required-and-included-only-as-a-supplementary-alternative-input-method"/>
-    <hyperlink ref="A141" r:id="rId99" tooltip="Allow a preference to be set for playing online multiplayer with players who will only play with / are willing to play without voice chat" display="http://gameaccessibilityguidelines.com/allow-a-preference-to-be-set-for-playing-online-multiplayer-with-players-who-will-only-play-with-are-willing-to-play-without-voice-chat"/>
-    <hyperlink ref="A142" r:id="rId100" tooltip="Support text chat as well as voice for multiplayer" display="http://gameaccessibilityguidelines.com/support-text-chat-as-well-as-voice-for-multiplayer"/>
-    <hyperlink ref="A143" r:id="rId101" display="http://gameaccessibilityguidelines.com/support-visual-means-of-communicating-in-multiplayer"/>
-    <hyperlink ref="A144" r:id="rId102" tooltip="Base speech recognition on individual words from a small vocabulary (eg. ‘yes’ ‘no’ ‘open’) instead of long phrases or multi-syllable words" display="http://gameaccessibilityguidelines.com/base-speech-recognition-on-individual-words-from-a-small-vocabulary-eg-yes-no-open-instead-of-long-phrases-or-multi-syllable-words"/>
-    <hyperlink ref="A147" r:id="rId103" tooltip="Base speech recognition on hitting a volume threshold (eg. 50%) instead of words" display="http://gameaccessibilityguidelines.com/base-speech-recognition-on-hitting-a-volume-threshold-eg-50-instead-of-words"/>
-    <hyperlink ref="A148" r:id="rId104" display="http://gameaccessibilityguidelines.com/use-symbol-based-chat-smileys-etc"/>
-    <hyperlink ref="A153" r:id="rId105" display="http://gameaccessibilityguidelines.com/provide-details-of-accessibility-features-on-packaging-andor-website"/>
-    <hyperlink ref="A154" r:id="rId106" display="http://gameaccessibilityguidelines.com/provide-details-of-accessibility-features-in-game"/>
-    <hyperlink ref="A155" r:id="rId107" display="http://gameaccessibilityguidelines.com/offer-a-wide-choice-of-difficulty-levels"/>
-    <hyperlink ref="A156" r:id="rId108" display="http://gameaccessibilityguidelines.com/ensure-that-all-settings-are-savedremembered"/>
-    <hyperlink ref="A157" r:id="rId109" display="http://gameaccessibilityguidelines.com/solicit-accessibility-feedback/"/>
-    <hyperlink ref="A160" r:id="rId110" display="http://gameaccessibilityguidelines.com/allow-difficulty-level-to-be-altered-during-gameplay-either-through-settings-or-adaptive-difficulty"/>
-    <hyperlink ref="A161" r:id="rId111" display="http://gameaccessibilityguidelines.com/include-some-people-with-impairments-amongst-play-testing-participants"/>
-    <hyperlink ref="A162" r:id="rId112" display="http://gameaccessibilityguidelines.com/offer-a-means-to-bypass-gameplay-elements-that-arent-part-of-the-core-mechanic-via-settings-or-in-game-skip-option"/>
-    <hyperlink ref="A163" r:id="rId113" display="http://gameaccessibilityguidelines.com/include-assist-modes-such-as-auto-aim-and-assisted-steering"/>
-    <hyperlink ref="A164" r:id="rId114" display="http://gameaccessibilityguidelines.com/provide-a-manual-save-feature"/>
-    <hyperlink ref="A165" r:id="rId115" display="http://gameaccessibilityguidelines.com/provide-an-autosave-feature"/>
-    <hyperlink ref="A166" r:id="rId116" tooltip="Allow a preference to be set for playing online multiplayer with/without others who are using accessibility features that could give a competitive advantage" display="http://gameaccessibilityguidelines.com/allow-a-preference-to-be-set-for-playing-online-multiplayer-withwithout-others-who-are-using-accessibility-features-that-could-give-a-competitive-advantage"/>
-    <hyperlink ref="A167" r:id="rId117" tooltip="Allow gameplay to be fine-tuned by exposing as many variables as possible" display="http://gameaccessibilityguidelines.com/allow-gameplay-to-be-fine-tuned-by-exposing-as-many-variables-as-possible"/>
-    <hyperlink ref="A170" r:id="rId118" tooltip="Include every relevant category of impairment (motor, cognitive etc) amongst play-testing participants, in representative numbers based on age / demographic of target audience" display="http://gameaccessibilityguidelines.com/include-every-relevant-category-of-impairment-motor-cognitive-etc-amongst-play-testing-participants-in-representative-numbers-based-on-age-demographic-of-target-audience"/>
-    <hyperlink ref="A171" r:id="rId119" tooltip="Allow settings to be saved to different profiles, at either game or platform level" display="http://gameaccessibilityguidelines.com/allow-settings-to-be-saved-to-different-profiles-at-either-game-or-platform-level"/>
-    <hyperlink ref="A172" r:id="rId120" display="http://gameaccessibilityguidelines.com/realtime-text-speech-transcription/"/>
+    <hyperlink ref="A7" r:id="rId1" display="http://gameaccessibilityguidelines.com/allow-controls-to-be-remapped-reconfigured" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" display="http://gameaccessibilityguidelines.com/ensure-controls-are-as-simple-as-possible-or-provide-a-simpler-alternative" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId3" display="http://gameaccessibilityguidelines.com/ensure-that-all-areas-of-the-user-interface-can-be-accessed-using-the-same-input-method-as-the-gameplay" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId4" display="http://gameaccessibilityguidelines.com/include-an-option-to-adjust-the-sensitivity-of-controls" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A11" r:id="rId5" display="http://gameaccessibilityguidelines.com/ensure-interactive-elements-virtual-controls-are-large-and-well-spaced-particularly-on-small-or-touch-screens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" display="http://gameaccessibilityguidelines.com/support-more-than-one-input-device" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A15" r:id="rId7" display="http://gameaccessibilityguidelines.com/make-interactive-elements-that-require-accuracy-eg-cursortouch-controlled-menu-options-stationary" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16" r:id="rId8" display="http://gameaccessibilityguidelines.com/ensure-that-multiple-simultaneous-actions-eg-clickdrag-or-swipe-are-not-required-and-included-only-as-a-supplementary-alternative-input-method" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A17" r:id="rId9" display="http://gameaccessibilityguidelines.com/ensure-that-all-key-actions-can-be-carried-out-by-digital-controls-pad-keys-presses-with-more-complex-input-eg-analogue-speech-gesture-not-required-and-included-only-as-supplementary-al" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" display="http://gameaccessibilityguidelines.com/include-an-option-to-adjust-the-game-speed" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A19" r:id="rId11" display="http://gameaccessibilityguidelines.com/avoid-repeated-inputs-button-mashingquick-time-events" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A20" r:id="rId12" display="http://gameaccessibilityguidelines.com/if-producing-a-pc-game-support-windowed-mode-for-compatibility-with-overlaid-virtual-keyboards" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A21" r:id="rId13" display="http://gameaccessibilityguidelines.com/avoid-provide-alternatives-to-requiring-buttons-to-be-held-down" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A22" r:id="rId14" display="http://gameaccessibilityguidelines.com/allow-interfaces-to-be-rearranged" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A23" r:id="rId15" display="http://gameaccessibilityguidelines.com/allow-interfaces-to-be-resized" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A24" r:id="rId16" display="http://gameaccessibilityguidelines.com/provide-a-macro-system/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A25" r:id="rId17" display="http://gameaccessibilityguidelines.com/allow-for-varied-body-types-in-vr/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A28" r:id="rId18" display="http://gameaccessibilityguidelines.com/allow-play-in-both-landscape-and-portrait" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A29" r:id="rId19" tooltip="Do not make precise timing essential to gameplay – offer alternatives, actions that can be carried out while paused, or a skip mechanism" display="http://gameaccessibilityguidelines.com/do-not-make-precise-timing-essential-to-gameplay-offer-alternatives-actions-that-can-be-carried-out-while-paused-or-a-skip-mechanism" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A30" r:id="rId20" tooltip="Include a cool-down period (post acceptance delay) of 0.5 seconds between inputs" display="http://gameaccessibilityguidelines.com/include-a-cool-down-period-post-acceptance-delay-of-0-5-seconds-between-inputs" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A31" r:id="rId21" display="http://gameaccessibilityguidelines.com/provide-very-simple-control-schemes-that-are-compatible-with-assistive-technology-devices-such-as-switch-or-eye-tracking" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A37" r:id="rId22" display="http://gameaccessibilityguidelines.com/allow-the-game-to-be-started-without-the-need-to-navigate-through-multiple-levels-of-menus" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A38" r:id="rId23" display="http://gameaccessibilityguidelines.com/use-an-easily-readable-default-font-size" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A39" r:id="rId24" display="http://gameaccessibilityguidelines.com/use-simple-clear-language" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A40" r:id="rId25" display="http://gameaccessibilityguidelines.com/use-simple-clear-text-formatting" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A41" r:id="rId26" display="http://gameaccessibilityguidelines.com/include-tutorials" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A42" r:id="rId27" display="http://gameaccessibilityguidelines.com/allow-players-to-progress-through-text-prompts-at-their-own-pace" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A43" r:id="rId28" display="http://gameaccessibilityguidelines.com/avoid-flickering-images-and-repetitive-patterns" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A46" r:id="rId29" display="http://gameaccessibilityguidelines.com/include-contextual-in-game-helpguidancetips" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A47" r:id="rId30" display="http://gameaccessibilityguidelines.com/indicate-allow-reminder-of-current-objectives-during-gameplay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A48" r:id="rId31" display="http://gameaccessibilityguidelines.com/indicate-allow-reminder-of-controls-during-gameplay" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A49" r:id="rId32" display="http://gameaccessibilityguidelines.com/include-a-means-of-practicing-without-failure-such-as-a-practice-level-or-sandbox-mode" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A50" r:id="rId33" display="http://gameaccessibilityguidelines.com/employ-a-simple-clear-narrative-structure" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A51" r:id="rId34" display="http://gameaccessibilityguidelines.com/if-using-a-long-overarching-narrative-provide-summaries-of-progress" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A52" r:id="rId35" display="http://gameaccessibilityguidelines.com/ensure-no-essential-information-especially-instructions-is-conveyed-by-text-alone-reinforce-with-visuals-andor-speech" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A53" r:id="rId36" tooltip="Give a clear indication that interactive elements are interactive" display="http://gameaccessibilityguidelines.com/give-a-clear-indication-that-interactive-elements-are-interactive" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A54" r:id="rId37" tooltip="Provide an option to turn off / hide background movement" display="http://gameaccessibilityguidelines.com/provide-an-option-to-turn-off-hide-background-movement" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A55" r:id="rId38" tooltip="Support voice chat as well as text for multiplayer games" display="http://gameaccessibilityguidelines.com/support-voice-chat-as-well-as-text-for-multiplayer-games" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A56" r:id="rId39" tooltip="Provide gameplay thumbnails with game saves" display="http://gameaccessibilityguidelines.com/provide-gameplay-thumbnails-with-game-saves" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A57" r:id="rId40" tooltip="Provide separate volume controls or mutes for effects, speech and background / music" display="http://gameaccessibilityguidelines.com/provide-separate-volume-controls-or-mutes-for-effects-speech-and-background-music" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A58" r:id="rId41" tooltip="Ensure sound / music choices for each key objects / events are distinct from each other" display="http://gameaccessibilityguidelines.com/ensure-sound-music-choices-for-each-key-objects-events-are-distinct-from-each-other" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A59" r:id="rId42" tooltip="Include an option to adjust the game speed" display="http://gameaccessibilityguidelines.com/include-an-option-to-adjust-the-game-speed" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A60" r:id="rId43" tooltip="Provide a choice of text colour, low/high contrast choice as a minimum" display="http://gameaccessibilityguidelines.com/provide-a-choice-of-text-colour-lowhigh-contrast-choice-as-a-minimum" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A61" r:id="rId44" display="http://gameaccessibilityguidelines.com/highlight-important-words/" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A64" r:id="rId45" display="http://gameaccessibilityguidelines.com/provide-an-option-to-disable-blood-and-gore/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A65" r:id="rId46" display="http://gameaccessibilityguidelines.com/provide-full-internal-self-voicing-for-all-text-including-menus-and-installers" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A66" r:id="rId47" display="http://gameaccessibilityguidelines.com/avoid-any-sudden-unexpected-movement-or-events" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A67" r:id="rId48" display="http://gameaccessibilityguidelines.com/allow-all-narrative-and-instructions-to-be-replayed" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A68" r:id="rId49" display="http://gameaccessibilityguidelines.com/use-symbol-based-chat-smileys-etc" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A69" r:id="rId50" display="http://gameaccessibilityguidelines.com/provide-an-option-to-turn-off-hide-all-non-interactive-elements" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A74" r:id="rId51" display="http://gameaccessibilityguidelines.com/ensure-no-essential-information-is-conveyed-by-a-colour-alone" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A75" r:id="rId52" display="http://gameaccessibilityguidelines.com/if-the-game-uses-field-of-view-3d-engine-only-set-an-appropriate-default-for-the-expected-viewing-environment" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A76" r:id="rId53" display="http://gameaccessibilityguidelines.com/avoid-vr-simulation-sickness-triggers/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A77" r:id="rId54" display="http://gameaccessibilityguidelines.com/use-an-easily-readable-default-font-size" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A78" r:id="rId55" display="http://gameaccessibilityguidelines.com/use-simple-clear-text-formatting" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A79" r:id="rId56" display="http://gameaccessibilityguidelines.com/provide-high-contrast-between-text-and-background" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A80" r:id="rId57" display="http://gameaccessibilityguidelines.com/ensure-interactive-elements-virtual-controls-are-large-and-well-spaced-particularly-on-small-or-touch-screens" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A83" r:id="rId58" tooltip="If the game uses field of view (3D engine only), set an appropriate default for the expected viewing environment" display="http://gameaccessibilityguidelines.com/if-the-game-uses-field-of-view-3d-engine-only-set-an-appropriate-default-for-the-expected-viewing-environment" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A84" r:id="rId59" tooltip="Avoid (or provide option to disable) any difference between controller movement and camera movement, such as weapon/walk bobbing or mouse smoothing" display="http://gameaccessibilityguidelines.com/avoid-or-provide-option-to-disable-any-difference-between-controller-movement-and-camera-movement-such-as-weaponwalk-bobbing-or-mouse-smoothing" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A85" r:id="rId60" tooltip="Use surround sound" display="http://gameaccessibilityguidelines.com/use-surround-sound" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A86" r:id="rId61" tooltip="Provide an option to turn off / hide background movement" display="http://gameaccessibilityguidelines.com/provide-an-option-to-turn-off-hide-background-movement" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A87" r:id="rId62" display="http://gameaccessibilityguidelines.com/ensure-screenreader-support-for-mobile-devices" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A88" r:id="rId63" tooltip="Provide an option to adjust contrast" display="http://gameaccessibilityguidelines.com/provide-an-option-to-adjust-contrast" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A89" r:id="rId64" tooltip="Ensure sound / music choices for each key objects / events are distinct from each other" display="http://gameaccessibilityguidelines.com/ensure-sound-music-choices-for-each-key-objects-events-are-distinct-from-each-other" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A90" r:id="rId65" tooltip="Provide a choice of cursor / crosshair colours / designs" display="http://gameaccessibilityguidelines.com/provide-a-choice-of-cursor-crosshair-colours-designs" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A91" r:id="rId66" tooltip="Give a clear indication that interactive elements are interactive" display="http://gameaccessibilityguidelines.com/give-a-clear-indication-that-interactive-elements-are-interactive" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A92" r:id="rId67" tooltip="Ensure manual / website are provided in a screenreader friendly format" display="http://gameaccessibilityguidelines.com/ensure-manual-website-are-provided-in-a-screenreader-friendly-format" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A93" r:id="rId68" tooltip="Provide separate volume controls or mutes for effects, speech and background / music" display="http://gameaccessibilityguidelines.com/provide-separate-volume-controls-or-mutes-for-effects-speech-and-background-music" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A94" r:id="rId69" tooltip="Avoid placing essential temporary information outside the player’s eye-line" display="http://gameaccessibilityguidelines.com/avoid-placing-essential-temporary-information-outside-the-players-eye-line" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A95" r:id="rId70" display="http://gameaccessibilityguidelines.com/allow-interfaces-to-be-resized" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A98" r:id="rId71" display="http://gameaccessibilityguidelines.com/allow-the-font-size-to-be-adjusted" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A99" r:id="rId72" display="http://gameaccessibilityguidelines.com/provide-a-pingable-sonar-style-audio-map" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A100" r:id="rId73" display="http://gameaccessibilityguidelines.com/provide-full-internal-self-voicing-for-all-text-including-menus-and-installers" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A101" r:id="rId74" tooltip="Provide a voiced GPS" display="http://gameaccessibilityguidelines.com/provide-a-voiced-gps" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A102" r:id="rId75" tooltip="Allow easy orientation to / movement along compass points" display="http://gameaccessibilityguidelines.com/allow-easy-orientation-to-movement-along-compass-points" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A103" r:id="rId76" tooltip="Ensure that all key actions can be carried out by digital controls (pads / keys / presses), with more complex input (eg. analogue, gesture) not required, and included only as supplementary / alternative input methods" display="http://gameaccessibilityguidelines.com/ensure-that-all-key-actions-can-be-carried-out-by-digital-controls-pads-keys-presses-with-more-complex-input-eg-analogue-gesture-not-required-and-included-only-as-supplementary-alternati" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A104" r:id="rId77" tooltip="Ensure screenreader support, including menus &amp; installers" display="http://gameaccessibilityguidelines.com/ensure-screenreader-support-including-menus-installers" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A105" r:id="rId78" tooltip="Use distinct sound / music design for all objects and events" display="http://gameaccessibilityguidelines.com/use-distinct-sound-music-design-for-all-objects-and-events" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A106" r:id="rId79" tooltip="Simulate binaural recording" display="http://gameaccessibilityguidelines.com/simulate-binaural-recording" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A107" r:id="rId80" display="http://gameaccessibilityguidelines.com/provide-an-audio-description-track/" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A112" r:id="rId81" display="http://gameaccessibilityguidelines.com/provide-subtitles-for-all-important-speech/" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A113" r:id="rId82" display="http://gameaccessibilityguidelines.com/provide-separate-volume-controls-or-mutes-for-effects-speech-and-background-music" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A114" r:id="rId83" display="http://gameaccessibilityguidelines.com/ensure-no-essential-information-is-conveyed-by-sounds-alone" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A115" r:id="rId84" display="http://gameaccessibilityguidelines.com/if-any-subtitles-captions-are-used-present-them-in-a-clear-easy-to-read-way/" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A118" r:id="rId85" display="http://gameaccessibilityguidelines.com/keep-background-noise-to-minimum-during-speech" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A119" r:id="rId86" display="http://gameaccessibilityguidelines.com/provide-subtitles-for-supplementary-speech/" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A120" r:id="rId87" display="http://gameaccessibilityguidelines.com/ensure-subtitles-captions-are-or-can-be-enabled-before-any-sound-is-played" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A121" r:id="rId88" display="http://gameaccessibilityguidelines.com/provide-captions-or-visuals-for-significant-background-sounds/" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A122" r:id="rId89" display="http://gameaccessibilityguidelines.com/provide-a-visual-indication-of-who-is-currently-speaking" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A123" r:id="rId90" display="http://gameaccessibilityguidelines.com/allow-subtitlecaption-presentation-to-be-customised/" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A125" r:id="rId91" display="http://gameaccessibilityguidelines.com/support-visual-means-of-communicating-in-multiplayer" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A126" r:id="rId92" display="http://gameaccessibilityguidelines.com/allow-a-preference-to-be-set-for-playing-online-multiplayer-with-players-who-will-only-play-with-are-willing-to-play-without-voice-chat" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A127" r:id="rId93" display="http://gameaccessibilityguidelines.com/ensure-that-all-important-supplementary-information-eg-the-direction-you-are-being-shot-from-conveyed-by-audio-is-replicated-in-text-visuals" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A128" r:id="rId94" display="http://gameaccessibilityguidelines.com/provide-a-stereomono-toggle" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A131" r:id="rId95" display="http://gameaccessibilityguidelines.com/ensure-that-subtitlescaptions-are-cut-down-to-and-presented-at-an-appropriate-words-per-minute-for-the-target-age-group" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A132" r:id="rId96" display="http://gameaccessibilityguidelines.com/provide-signing" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A133" r:id="rId97" display="http://gameaccessibilityguidelines.com/use-symbol-based-chat-smileys-etc" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A138" r:id="rId98" display="http://gameaccessibilityguidelines.com/ensure-that-speech-input-is-not-required-and-included-only-as-a-supplementary-alternative-input-method" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A141" r:id="rId99" tooltip="Allow a preference to be set for playing online multiplayer with players who will only play with / are willing to play without voice chat" display="http://gameaccessibilityguidelines.com/allow-a-preference-to-be-set-for-playing-online-multiplayer-with-players-who-will-only-play-with-are-willing-to-play-without-voice-chat" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A142" r:id="rId100" tooltip="Support text chat as well as voice for multiplayer" display="http://gameaccessibilityguidelines.com/support-text-chat-as-well-as-voice-for-multiplayer" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A143" r:id="rId101" display="http://gameaccessibilityguidelines.com/support-visual-means-of-communicating-in-multiplayer" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A144" r:id="rId102" tooltip="Base speech recognition on individual words from a small vocabulary (eg. ‘yes’ ‘no’ ‘open’) instead of long phrases or multi-syllable words" display="http://gameaccessibilityguidelines.com/base-speech-recognition-on-individual-words-from-a-small-vocabulary-eg-yes-no-open-instead-of-long-phrases-or-multi-syllable-words" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A147" r:id="rId103" tooltip="Base speech recognition on hitting a volume threshold (eg. 50%) instead of words" display="http://gameaccessibilityguidelines.com/base-speech-recognition-on-hitting-a-volume-threshold-eg-50-instead-of-words" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A148" r:id="rId104" display="http://gameaccessibilityguidelines.com/use-symbol-based-chat-smileys-etc" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A153" r:id="rId105" display="http://gameaccessibilityguidelines.com/provide-details-of-accessibility-features-on-packaging-andor-website" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A154" r:id="rId106" display="http://gameaccessibilityguidelines.com/provide-details-of-accessibility-features-in-game" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A155" r:id="rId107" display="http://gameaccessibilityguidelines.com/offer-a-wide-choice-of-difficulty-levels" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A156" r:id="rId108" display="http://gameaccessibilityguidelines.com/ensure-that-all-settings-are-savedremembered" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A157" r:id="rId109" display="http://gameaccessibilityguidelines.com/solicit-accessibility-feedback/" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A160" r:id="rId110" display="http://gameaccessibilityguidelines.com/allow-difficulty-level-to-be-altered-during-gameplay-either-through-settings-or-adaptive-difficulty" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A161" r:id="rId111" display="http://gameaccessibilityguidelines.com/include-some-people-with-impairments-amongst-play-testing-participants" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A162" r:id="rId112" display="http://gameaccessibilityguidelines.com/offer-a-means-to-bypass-gameplay-elements-that-arent-part-of-the-core-mechanic-via-settings-or-in-game-skip-option" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A163" r:id="rId113" display="http://gameaccessibilityguidelines.com/include-assist-modes-such-as-auto-aim-and-assisted-steering" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A164" r:id="rId114" display="http://gameaccessibilityguidelines.com/provide-a-manual-save-feature" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A165" r:id="rId115" display="http://gameaccessibilityguidelines.com/provide-an-autosave-feature" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A166" r:id="rId116" tooltip="Allow a preference to be set for playing online multiplayer with/without others who are using accessibility features that could give a competitive advantage" display="http://gameaccessibilityguidelines.com/allow-a-preference-to-be-set-for-playing-online-multiplayer-withwithout-others-who-are-using-accessibility-features-that-could-give-a-competitive-advantage" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A167" r:id="rId117" tooltip="Allow gameplay to be fine-tuned by exposing as many variables as possible" display="http://gameaccessibilityguidelines.com/allow-gameplay-to-be-fine-tuned-by-exposing-as-many-variables-as-possible" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A170" r:id="rId118" tooltip="Include every relevant category of impairment (motor, cognitive etc) amongst play-testing participants, in representative numbers based on age / demographic of target audience" display="http://gameaccessibilityguidelines.com/include-every-relevant-category-of-impairment-motor-cognitive-etc-amongst-play-testing-participants-in-representative-numbers-based-on-age-demographic-of-target-audience" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A171" r:id="rId119" tooltip="Allow settings to be saved to different profiles, at either game or platform level" display="http://gameaccessibilityguidelines.com/allow-settings-to-be-saved-to-different-profiles-at-either-game-or-platform-level" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A172" r:id="rId120" display="http://gameaccessibilityguidelines.com/realtime-text-speech-transcription/" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId121"/>

--- a/Assets/Notes and Utilities/GAG-checklist.xlsx
+++ b/Assets/Notes and Utilities/GAG-checklist.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA1572-7BDC-4AEB-AB51-B24E0E02E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CC806C-6F07-433A-8186-2BD23D08F87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$174</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
   <si>
     <t>Guideline</t>
   </si>
@@ -414,16 +417,7 @@
     <t>Non necessario</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Non abbiamo colori di testo, solo formattazioni</t>
-  </si>
-  <si>
-    <t>Non abbiamo elementi 3d</t>
-  </si>
-  <si>
-    <t>Non abbiamo il VR</t>
   </si>
   <si>
     <t>Obiettivi</t>
@@ -467,9 +461,6 @@
     <t>Abilitare/disabilitare animazioni del background per leggibilità schermo</t>
   </si>
   <si>
-    <t>Text to voice option (evitando le AI se riusciamo)?</t>
-  </si>
-  <si>
     <t>Filtro bianco o nero regolabile sul background https://gameaccessibilityguidelines.com/epic-eric-contrast-settings/</t>
   </si>
   <si>
@@ -482,16 +473,139 @@
     <t>Capire come rendere chiara parte di interattività</t>
   </si>
   <si>
-    <t>No manuali</t>
-  </si>
-  <si>
     <t>Due controlli diversi tra effetti audio e musica</t>
   </si>
   <si>
-    <t>No problema</t>
-  </si>
-  <si>
     <t>Valutare inserimento opzione?</t>
+  </si>
+  <si>
+    <t>Nei piani</t>
+  </si>
+  <si>
+    <t>Elemento non presente nel progetto</t>
+  </si>
+  <si>
+    <t>Non so sei il text to voice o screenreader possa fare o meno qualcosa del genere</t>
+  </si>
+  <si>
+    <t>Text to voice option (evitando le AI se riusciamo)? Screenreader</t>
+  </si>
+  <si>
+    <t>Sarebbe interessante, non so se sia fattibile sfruttando tutto il discorso di screenreading: le descrizione date dal fungo a quel punto sarebbero pensate per dare info sul contesto (e così il testo letto e quello da audiare sarebbero lo stesso).</t>
+  </si>
+  <si>
+    <t>Da fare</t>
+  </si>
+  <si>
+    <t>Da valutare? In generale l'audio qui è sempre d'accompagnamento, non narrativo.</t>
+  </si>
+  <si>
+    <t>Interessante, non so se e come sia fattibile.</t>
+  </si>
+  <si>
+    <t>Elemento non necessario (no voice over o simili)</t>
+  </si>
+  <si>
+    <t>Da inserire (sia su Steam/itch che nelle comunicazioni ad hoc sui social)</t>
+  </si>
+  <si>
+    <t>Da inserire (la mia speranza di fare tutto diegetico svanisce)</t>
+  </si>
+  <si>
+    <t>C'è, ma non impatta l'accessibilità</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Da inserire (essendo sostanzialmente un vedo/non vedo stat la vedo easy)</t>
+  </si>
+  <si>
+    <t>Da capire come ma sì</t>
+  </si>
+  <si>
+    <t>Non impattante</t>
+  </si>
+  <si>
+    <t>Sarebbe la parte anarchist in teoria</t>
+  </si>
+  <si>
+    <t>Non fattibile</t>
+  </si>
+  <si>
+    <t>Riflessione in altro punto</t>
+  </si>
+  <si>
+    <t>Potrebbero esserci dei servizi già sfruttabili attraverso windows, ma non ho capito quanto e come: https://gameaccessibilityguidelines.com/ensure-screenreader-support-including-menus-installers/ e https://learn.microsoft.com/en-us/shows/gdc-2017/gdc2017-009</t>
+  </si>
+  <si>
+    <t>Già di default nel progetto (un solo tasto)</t>
+  </si>
+  <si>
+    <t>Ha senso?</t>
+  </si>
+  <si>
+    <t>Già inserito in punto sotto</t>
+  </si>
+  <si>
+    <t>Già di default nel progetto</t>
+  </si>
+  <si>
+    <t>Da inserire</t>
+  </si>
+  <si>
+    <t>Non so se sia fattibile come cosa, tenendo conto che le tavole son disegnate con una certa logica.</t>
+  </si>
+  <si>
+    <t>Idem come sopra</t>
+  </si>
+  <si>
+    <t>Non avremo la versione ufficiale mobile</t>
+  </si>
+  <si>
+    <t>Con un solo bottone è già una cosa di default?</t>
+  </si>
+  <si>
+    <t>Ho l'impressione che lo stile del gioco non lo preveda sempre.</t>
+  </si>
+  <si>
+    <t>Riflessione da fare in generale su informazioni date per gestire il gioco</t>
+  </si>
+  <si>
+    <t>Riflessione generale da fare</t>
+  </si>
+  <si>
+    <t>Non dovrebbe essere necessario. Eventualmente mostrare icona tasto a riavvio gioco?</t>
+  </si>
+  <si>
+    <t>Non credo sia evitabile</t>
+  </si>
+  <si>
+    <t>Previsto (scheda personagge)</t>
+  </si>
+  <si>
+    <t>Non possibile</t>
+  </si>
+  <si>
+    <t>Già indicato in altro punto</t>
+  </si>
+  <si>
+    <t>Salvataggio unico (?)</t>
+  </si>
+  <si>
+    <t>Da valutare</t>
+  </si>
+  <si>
+    <t>Usare bold (già nel tutorial)</t>
+  </si>
+  <si>
+    <t>Creare un log?</t>
+  </si>
+  <si>
+    <t>Fattibile?</t>
   </si>
 </sst>
 </file>
@@ -569,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +693,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -623,6 +755,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -946,11 +1087,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,7 +1114,7 @@
         <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>125</v>
@@ -984,26 +1126,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="21" hidden="1" customHeight="1">
       <c r="A2" s="3"/>
       <c r="D2" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25">
+    <row r="3" spans="1:6" ht="38.25" hidden="1">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:6" ht="27">
+    <row r="6" spans="1:6" ht="27" hidden="1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1012,31 +1154,46 @@
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+      <c r="C7" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" hidden="1">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" hidden="1">
       <c r="A9" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
+      <c r="C10" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" hidden="1">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="27">
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1047,159 +1204,223 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+      <c r="C14" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" hidden="1">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
+      <c r="B15" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" hidden="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" hidden="1">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:2" ht="27">
+    <row r="27" spans="1:3" ht="27" hidden="1">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" hidden="1">
       <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
+      <c r="B29" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
+      <c r="C30" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:3" ht="38.25">
+    <row r="33" spans="1:3" ht="38.25" hidden="1">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1">
+    <row r="35" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A35"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="27">
+    <row r="36" spans="1:3" ht="27" hidden="1">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3" ht="30" hidden="1">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1">
+      <c r="B41" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1">
+    <row r="43" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" ht="27">
+    <row r="45" spans="1:3" s="8" customFormat="1" ht="27" hidden="1">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -1210,183 +1431,249 @@
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="C46" s="11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="30">
+      <c r="C48" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" hidden="1">
       <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="C50" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="30">
+      <c r="C51" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" hidden="1">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1">
       <c r="A55" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="30">
+      <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" hidden="1">
       <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="30">
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" hidden="1">
       <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1">
       <c r="A59" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="30">
+      <c r="B59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="C60" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="C61" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" ht="27">
+    <row r="63" spans="1:3" ht="27" hidden="1">
       <c r="A63" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="30">
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" hidden="1">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="B65" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" s="6" t="s">
         <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" s="6" t="s">
         <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:3" ht="38.25">
+    <row r="71" spans="1:3" ht="38.25" hidden="1">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:3" ht="27">
+    <row r="73" spans="1:3" ht="27" hidden="1">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="8" customFormat="1" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="8" customFormat="1" ht="30" hidden="1">
       <c r="A75" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30">
       <c r="A77" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>133</v>
+      <c r="C77" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>134</v>
+      <c r="C78" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30">
       <c r="A79" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>135</v>
+      <c r="C79" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="8" customFormat="1" ht="30">
@@ -1394,127 +1681,127 @@
         <v>25</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3" ht="27">
+    <row r="82" spans="1:3" ht="27" hidden="1">
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30">
+    <row r="83" spans="1:3" ht="30" hidden="1">
       <c r="A83" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="8" customFormat="1" ht="45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="8" customFormat="1" ht="45" hidden="1">
       <c r="A84" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30">
       <c r="A86" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>137</v>
+      <c r="C86" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>138</v>
+      <c r="C87" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30">
       <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>139</v>
+      <c r="C88" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30">
       <c r="A89" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>140</v>
+      <c r="C89" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>141</v>
+      <c r="C90" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30">
+      <c r="C91" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" hidden="1">
       <c r="A92" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30">
       <c r="A93" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30">
+      <c r="C93" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" hidden="1">
       <c r="A94" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="C95" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:3" ht="27">
+    <row r="97" spans="1:3" ht="27" hidden="1">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
@@ -1523,10 +1810,16 @@
       <c r="A98" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="C98" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="8" customFormat="1" ht="30">
@@ -1534,26 +1827,40 @@
         <v>83</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C100" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="B101" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="60">
+      <c r="B102" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="60" hidden="1">
       <c r="A103" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="B103" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="75">
       <c r="A104" s="6" t="s">
         <v>87</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="8" customFormat="1">
@@ -1561,262 +1868,356 @@
         <v>88</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="C105" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="B106" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="60">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:3" ht="38.25">
+    <row r="109" spans="1:3" ht="38.25" hidden="1">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:3" ht="27">
+    <row r="111" spans="1:3" ht="27" hidden="1">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" s="6" t="s">
         <v>113</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30">
       <c r="A113" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="C113" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
+      <c r="B114" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" hidden="1">
       <c r="A115" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="B115" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:3" ht="27">
+    <row r="117" spans="1:3" ht="27" hidden="1">
       <c r="A117" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="8" customFormat="1">
+    <row r="118" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
+      <c r="B119" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" hidden="1">
       <c r="A120" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="B120" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="B122" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="B123" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="B124" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="45">
+      <c r="B125" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" hidden="1">
       <c r="A126" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="45">
+      <c r="B126" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="45" hidden="1">
       <c r="A127" s="6" t="s">
         <v>97</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="C128" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" ht="27">
+    <row r="130" spans="1:2" ht="27" hidden="1">
       <c r="A130" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="30">
+    <row r="131" spans="1:2" ht="30" hidden="1">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30" hidden="1">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1">
       <c r="A133" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" ht="38.25">
+    <row r="135" spans="1:2" ht="38.25" hidden="1">
       <c r="A135" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:2" hidden="1">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" ht="27">
+    <row r="137" spans="1:2" ht="27" hidden="1">
       <c r="A137" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="30">
+    <row r="138" spans="1:2" ht="30" hidden="1">
       <c r="A138" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" ht="27">
+    <row r="140" spans="1:2" ht="27" hidden="1">
       <c r="A140" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="45">
+    <row r="141" spans="1:2" ht="30" hidden="1">
       <c r="A141" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1">
       <c r="A142" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1">
       <c r="A143" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="30">
+      <c r="B143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30" hidden="1">
       <c r="A144" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="B144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:3" ht="27">
+    <row r="146" spans="1:3" ht="27" hidden="1">
       <c r="A146" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30">
+    <row r="147" spans="1:3" ht="30" hidden="1">
       <c r="A147" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" s="8" customFormat="1">
+      <c r="B147" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A148" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" s="8" customFormat="1">
+    <row r="149" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A149" s="6"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" ht="38.25">
+    <row r="150" spans="1:3" ht="38.25" hidden="1">
       <c r="A150" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:3" ht="27">
+    <row r="152" spans="1:3" ht="27" hidden="1">
       <c r="A152" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="30">
       <c r="A153" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="C154" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="155" spans="1:3" s="8" customFormat="1">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="C155" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C156" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="157" spans="1:3" s="8" customFormat="1">
       <c r="A157" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="C157" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:3" ht="27">
+    <row r="159" spans="1:3" ht="27" hidden="1">
       <c r="A159" s="4" t="s">
         <v>8</v>
       </c>
@@ -1825,72 +2226,113 @@
       <c r="A160" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="30">
+      <c r="C160" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
       <c r="A161" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="30">
+      <c r="C161" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30" hidden="1">
       <c r="A162" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1">
       <c r="A164" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1">
       <c r="A165" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="45">
+      <c r="B165" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="45" hidden="1">
       <c r="A166" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="30">
+      <c r="B166" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30">
       <c r="A167" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="C167" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" ht="27">
+    <row r="169" spans="1:3" ht="27" hidden="1">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="45">
+    <row r="170" spans="1:3" ht="45">
       <c r="A170" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="30">
+      <c r="C170" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30">
       <c r="A171" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="C171" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1">
       <c r="A172" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="56.25">
+      <c r="B172" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1"/>
+    <row r="174" spans="1:3" ht="56.25" hidden="1">
       <c r="A174" s="9" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A78:B78 D78:AB78 A1:AB77 A79:AB1514">
+  <autoFilter ref="A1:F174" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A78:B78 D78:AB78 A79:AB1514 A1:AB7 D8:AB8 A8:B8 A9:AB77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("b"&amp;ROW())="No"</formula>
     </cfRule>

--- a/Assets/Notes and Utilities/GAG-checklist.xlsx
+++ b/Assets/Notes and Utilities/GAG-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CC806C-6F07-433A-8186-2BD23D08F87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08376554-F8FB-48E1-950A-5E2E99559CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="195">
   <si>
     <t>Guideline</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>("no" automatically greys out row)</t>
-  </si>
-  <si>
-    <t>Relevant to mechanic?</t>
   </si>
   <si>
     <t>© gameaccessibilityguidelines.com
@@ -449,9 +446,6 @@
     </r>
   </si>
   <si>
-    <t>sans serif, font dislessia (ci sta con l'estetica). Aggiungere opzione line spacing.</t>
-  </si>
-  <si>
     <t>Sfondo bianco, testo nero, eventualmente bordini su box testo per l'estetica o piccole decorazioni.</t>
   </si>
   <si>
@@ -467,18 +461,12 @@
     <t>Ragionare su fattibilità</t>
   </si>
   <si>
-    <t>Scelta del cursore</t>
-  </si>
-  <si>
     <t>Capire come rendere chiara parte di interattività</t>
   </si>
   <si>
     <t>Due controlli diversi tra effetti audio e musica</t>
   </si>
   <si>
-    <t>Valutare inserimento opzione?</t>
-  </si>
-  <si>
     <t>Nei piani</t>
   </si>
   <si>
@@ -494,12 +482,6 @@
     <t>Sarebbe interessante, non so se sia fattibile sfruttando tutto il discorso di screenreading: le descrizione date dal fungo a quel punto sarebbero pensate per dare info sul contesto (e così il testo letto e quello da audiare sarebbero lo stesso).</t>
   </si>
   <si>
-    <t>Da fare</t>
-  </si>
-  <si>
-    <t>Da valutare? In generale l'audio qui è sempre d'accompagnamento, non narrativo.</t>
-  </si>
-  <si>
     <t>Interessante, non so se e come sia fattibile.</t>
   </si>
   <si>
@@ -602,17 +584,68 @@
     <t>Usare bold (già nel tutorial)</t>
   </si>
   <si>
-    <t>Creare un log?</t>
-  </si>
-  <si>
     <t>Fattibile?</t>
+  </si>
+  <si>
+    <t>Commento Mattia</t>
+  </si>
+  <si>
+    <t>So che si può fare ma non l'ho mai fatto</t>
+  </si>
+  <si>
+    <t>Marco: fai una ricerca</t>
+  </si>
+  <si>
+    <t>Fattibile (da cercare sia per impostarla che per leggerla)</t>
+  </si>
+  <si>
+    <t>BAGNO DI SANGUE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Già fatto in TGDS -&gt; facile da implementare, non da solo.</t>
+  </si>
+  <si>
+    <t>Serve se implemento il remapping</t>
+  </si>
+  <si>
+    <t>Marco fa delle ricerche per capire quanto sia implementabile (es: plugin Unity) + Salvataggio impostazioni player</t>
+  </si>
+  <si>
+    <t>Creare guida</t>
+  </si>
+  <si>
+    <t>Più rendere opaco che disattivare, ho un canvas unico: canvass group ti permette di controllare alcune proprietà di tutti gli elementi del canvas, potrei rendere più opaco e bona.</t>
+  </si>
+  <si>
+    <t>provare fare testing con Steam Deck + Unity e su cellulare</t>
+  </si>
+  <si>
+    <t>sans serif, font dislessia (ci sta con l'estetica). Line spacing: tenere in considerazione già ora in fase di aggiustamento testo box</t>
+  </si>
+  <si>
+    <t>Opzione tasto grande come tutto il canvass, trasparente così posso cliccare ovunque -&gt; check trucco trasparenza unity perché unity non ti fa toccare le cose trasparenti.</t>
+  </si>
+  <si>
+    <t>Testare: https://assetstore.unity.com/packages/tools/gui/ui-accessibility-plugin-uap-87935</t>
+  </si>
+  <si>
+    <t>chiedere meglio a Bea cosa ha vissuto</t>
+  </si>
+  <si>
+    <t>unity usa i mixer, SE serve, provare a fare ricerche</t>
+  </si>
+  <si>
+    <t>Fare ricerca, ma sarebbe fattibile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,8 +715,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -728,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -764,6 +809,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,18 +1146,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1">
@@ -1111,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1132,12 +1186,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25" hidden="1">
+    <row r="3" spans="1:6" ht="37.799999999999997" hidden="1">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6" ht="15" hidden="1">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1145,33 +1199,36 @@
     <row r="5" spans="1:6" hidden="1">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:6" ht="27" hidden="1">
+    <row r="6" spans="1:6" ht="25.8" hidden="1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" hidden="1">
+      <c r="C7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" hidden="1">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" hidden="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" hidden="1">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1179,21 +1236,24 @@
         <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" hidden="1">
+        <v>157</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" hidden="1">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="27" hidden="1">
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="25.8" hidden="1">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1204,694 +1264,727 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" hidden="1">
+      <c r="C14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" hidden="1">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" hidden="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" hidden="1">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" hidden="1">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" hidden="1">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1">
+        <v>160</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" hidden="1">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1">
+      <c r="C23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" hidden="1">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" hidden="1">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:3" ht="27" hidden="1">
+    <row r="27" spans="1:4" ht="25.8" hidden="1">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:4" ht="43.2" hidden="1">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" hidden="1">
       <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30">
+        <v>160</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" hidden="1">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1">
+      <c r="C31" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:3" ht="38.25" hidden="1">
+    <row r="33" spans="1:4" ht="37.799999999999997" hidden="1">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:4" ht="15" hidden="1">
       <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" hidden="1">
+    <row r="35" spans="1:4" s="8" customFormat="1" hidden="1">
       <c r="A35"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="27" hidden="1">
+    <row r="36" spans="1:4" ht="25.8" hidden="1">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" hidden="1">
+    <row r="37" spans="1:4" ht="28.8" hidden="1">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" hidden="1">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1">
+      <c r="C39" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" hidden="1">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" hidden="1">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="8" customFormat="1" ht="28.8" hidden="1">
       <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" hidden="1">
+    <row r="43" spans="1:4" s="8" customFormat="1" ht="28.8" hidden="1">
       <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" ht="27" hidden="1">
+    <row r="45" spans="1:4" s="8" customFormat="1" ht="25.8" hidden="1">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="28.8">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" hidden="1">
+        <v>168</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" hidden="1">
       <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" hidden="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.8" hidden="1">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8" hidden="1">
       <c r="A53" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.8" hidden="1">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="43.2" hidden="1">
       <c r="A55" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" hidden="1">
       <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" hidden="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" hidden="1">
       <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.8" hidden="1">
       <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57.6">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:3" ht="27" hidden="1">
+    <row r="63" spans="1:4" ht="25.8" hidden="1">
       <c r="A63" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" hidden="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" hidden="1">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1">
+      <c r="C67" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="86.4">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1">
+      <c r="C69" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:3" ht="38.25" hidden="1">
+    <row r="71" spans="1:4" ht="37.799999999999997" hidden="1">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:3" ht="27" hidden="1">
+    <row r="73" spans="1:4" ht="25.8" hidden="1">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:4" ht="43.2" hidden="1">
       <c r="A74" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="8" customFormat="1" ht="30" hidden="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="8" customFormat="1" ht="43.2" hidden="1">
       <c r="A75" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:4" ht="43.2" hidden="1">
       <c r="A76" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.8">
       <c r="A77" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30">
+        <v>129</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="28.8" hidden="1">
       <c r="A78" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" hidden="1">
       <c r="A79" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="8" customFormat="1" ht="30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="8" customFormat="1" ht="72">
       <c r="A80" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1">
+        <v>131</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3" ht="27" hidden="1">
+    <row r="82" spans="1:4" ht="25.8" hidden="1">
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" hidden="1">
+    <row r="83" spans="1:4" ht="43.2" hidden="1">
       <c r="A83" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="8" customFormat="1" ht="45" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="8" customFormat="1" ht="43.2" hidden="1">
       <c r="A84" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" hidden="1">
+    <row r="85" spans="1:4" ht="43.2" hidden="1">
       <c r="A85" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="57.6">
       <c r="A87" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30">
+        <v>140</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="28.8" hidden="1">
       <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="28.8" hidden="1">
       <c r="A89" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="C89" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30" hidden="1">
+        <v>135</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="43.2" hidden="1">
       <c r="A92" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8">
       <c r="A93" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" hidden="1">
+        <v>136</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="43.2" hidden="1">
       <c r="A94" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1">
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:3" ht="27" hidden="1">
+    <row r="97" spans="1:3" ht="25.8" hidden="1">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="43.2" hidden="1">
       <c r="A99" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="8" customFormat="1" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="8" customFormat="1" ht="28.8" hidden="1">
       <c r="A100" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="43.2" hidden="1">
       <c r="A101" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="43.2" hidden="1">
       <c r="A102" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="60" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="43.2" hidden="1">
       <c r="A103" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="75">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="57.6" hidden="1">
       <c r="A104" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="8" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A105" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1">
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" spans="1:3" ht="43.2" hidden="1">
       <c r="A106" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="60">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="57.6" hidden="1">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:3" ht="38.25" hidden="1">
+    <row r="109" spans="1:3" ht="37.799999999999997" hidden="1">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
@@ -1899,176 +1992,175 @@
     <row r="110" spans="1:3" hidden="1">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:3" ht="27" hidden="1">
+    <row r="111" spans="1:3" ht="25.8" hidden="1">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3" ht="43.2" hidden="1">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="28.8" hidden="1">
       <c r="A113" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1">
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" spans="1:4" ht="43.2" hidden="1">
       <c r="A114" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="43.2" hidden="1">
       <c r="A115" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:3" ht="27" hidden="1">
+    <row r="117" spans="1:4" ht="25.8" hidden="1">
       <c r="A117" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="8" customFormat="1" hidden="1">
+    <row r="118" spans="1:4" s="8" customFormat="1" ht="43.2" hidden="1">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:4" ht="43.2" hidden="1">
       <c r="A119" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="43.2" hidden="1">
       <c r="A120" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1">
+      <c r="C121" s="15"/>
+    </row>
+    <row r="122" spans="1:4" ht="43.2" hidden="1">
       <c r="A122" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="43.2" hidden="1">
       <c r="A123" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="43.2" hidden="1">
       <c r="A124" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="43.2" hidden="1">
       <c r="A125" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="43.2" hidden="1">
       <c r="A126" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="45" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="43.2" hidden="1">
       <c r="A127" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:2" hidden="1">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" ht="27" hidden="1">
+    <row r="130" spans="1:2" ht="25.8" hidden="1">
       <c r="A130" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30" hidden="1">
+    <row r="131" spans="1:2" ht="43.2" hidden="1">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="30" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="43.2" hidden="1">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="43.2" hidden="1">
       <c r="A133" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:2" hidden="1">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:2" ht="38.25" hidden="1">
+    <row r="135" spans="1:2" ht="37.799999999999997" hidden="1">
       <c r="A135" s="3" t="s">
         <v>101</v>
       </c>
@@ -2076,81 +2168,81 @@
     <row r="136" spans="1:2" hidden="1">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:2" ht="27" hidden="1">
+    <row r="137" spans="1:2" ht="25.8" hidden="1">
       <c r="A137" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" hidden="1">
+    <row r="138" spans="1:2" ht="43.2" hidden="1">
       <c r="A138" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" hidden="1">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" ht="27" hidden="1">
+    <row r="140" spans="1:2" ht="25.8" hidden="1">
       <c r="A140" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30" hidden="1">
+    <row r="141" spans="1:2" ht="43.2" hidden="1">
       <c r="A141" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="43.2" hidden="1">
       <c r="A142" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="43.2" hidden="1">
       <c r="A143" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="30" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="43.2" hidden="1">
       <c r="A144" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:3" ht="27" hidden="1">
+    <row r="146" spans="1:3" ht="25.8" hidden="1">
       <c r="A146" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" hidden="1">
+    <row r="147" spans="1:3" ht="43.2" hidden="1">
       <c r="A147" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="8" customFormat="1" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="8" customFormat="1" ht="43.2" hidden="1">
       <c r="A148" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C148" s="1"/>
     </row>
@@ -2159,7 +2251,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" ht="38.25" hidden="1">
+    <row r="150" spans="1:3" ht="37.799999999999997" hidden="1">
       <c r="A150" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,91 +2259,91 @@
     <row r="151" spans="1:3" hidden="1">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:3" ht="27" hidden="1">
+    <row r="152" spans="1:3" ht="25.8" hidden="1">
       <c r="A152" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="8" customFormat="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="8" customFormat="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="8" customFormat="1" hidden="1">
       <c r="A157" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:3" hidden="1">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:3" ht="27" hidden="1">
+    <row r="159" spans="1:3" ht="25.8" hidden="1">
       <c r="A159" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30">
+    <row r="160" spans="1:3" ht="28.8" hidden="1">
       <c r="A160" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="30" hidden="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="43.2" hidden="1">
       <c r="A162" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="43.2" hidden="1">
       <c r="A163" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1">
@@ -2259,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1">
@@ -2267,61 +2359,61 @@
         <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="45" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="43.2" hidden="1">
       <c r="A166" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1">
       <c r="A167" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" spans="1:3" hidden="1">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:3" ht="27" hidden="1">
+    <row r="169" spans="1:3" ht="25.8" hidden="1">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="45">
+    <row r="170" spans="1:3" ht="43.2" hidden="1">
       <c r="A170" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.8" hidden="1">
       <c r="A171" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="28.8" hidden="1">
       <c r="A172" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:3" hidden="1"/>
-    <row r="174" spans="1:3" ht="56.25" hidden="1">
+    <row r="174" spans="1:3" ht="40.799999999999997" hidden="1">
       <c r="A174" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2331,8 +2423,13 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A78:B78 D78:AB78 A79:AB1514 A1:AB7 D8:AB8 A8:B8 A9:AB77">
+  <conditionalFormatting sqref="A1:AB7 A8:B8 D8:AB8 A9:AB77 A78:B78 D78:AB78 A79:AB1514">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("b"&amp;ROW())="No"</formula>
     </cfRule>
@@ -2460,6 +2557,6 @@
     <hyperlink ref="A172" r:id="rId120" display="http://gameaccessibilityguidelines.com/realtime-text-speech-transcription/" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId121"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId121"/>
 </worksheet>
 </file>